--- a/src/cloud/tests/HCM/CoreHR_USA/AddingAnContingentWorkerITC_Test.xlsx
+++ b/src/cloud/tests/HCM/CoreHR_USA/AddingAnContingentWorkerITC_Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbethi\Documents\GitHub\SeleniumFramework_2021B\src\cloud\tests\HCM\HCM_USA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vramasubramanian\OneDrive - IT Convergence\Documents\GitHub\SeleniumFramework_2021B\src\cloud\tests\HCM\CoreHR_USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE6F55A-2F69-4E88-89EB-1231CA72C7B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9959F66A-4A36-4BFE-A7D4-AA25E2A11DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS01" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>Execute</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Gustavo, Gutierrez</t>
-  </si>
-  <si>
     <t>USA Weekly Basis</t>
   </si>
   <si>
@@ -118,13 +115,157 @@
     <t>T3FN&lt;UID&gt;</t>
   </si>
   <si>
+    <t>{HCM_US_username}</t>
+  </si>
+  <si>
+    <t>Navigate</t>
+  </si>
+  <si>
+    <t>Gonzalez Figueroa, Gustavo</t>
+  </si>
+  <si>
+    <t>Payroll</t>
+  </si>
+  <si>
+    <t>US Bi-Weekly Payroll</t>
+  </si>
+  <si>
+    <t>PlacementReason</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>SubcontractAgreement</t>
+  </si>
+  <si>
+    <t>TemporaryEmploymentAgreement</t>
+  </si>
+  <si>
+    <t>W9</t>
+  </si>
+  <si>
+    <t>OriginalDateOfHire</t>
+  </si>
+  <si>
+    <t>PreferredName</t>
+  </si>
+  <si>
+    <t>EmployeeLegalStatus</t>
+  </si>
+  <si>
+    <t>Part-time regular</t>
+  </si>
+  <si>
+    <t>AssignmentCategory</t>
+  </si>
+  <si>
+    <t>RegularOrTemp</t>
+  </si>
+  <si>
+    <t>FullTimeOrPartTime</t>
+  </si>
+  <si>
+    <t>Temporary</t>
+  </si>
+  <si>
+    <t>Part time</t>
+  </si>
+  <si>
+    <t>Address3</t>
+  </si>
+  <si>
+    <t>Address4</t>
+  </si>
+  <si>
+    <t>MaritalStatus</t>
+  </si>
+  <si>
+    <t>HighestEducationLevel</t>
+  </si>
+  <si>
+    <t>VeteranSelfIdentificationStatus</t>
+  </si>
+  <si>
+    <t>I9Status</t>
+  </si>
+  <si>
+    <t>EVerifyStatus</t>
+  </si>
+  <si>
+    <t>I9Expiration</t>
+  </si>
+  <si>
+    <t>NewHireStatus</t>
+  </si>
+  <si>
+    <t>ExceptionReason</t>
+  </si>
+  <si>
+    <t>MedicalInsuranceavailable</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>ReportingEstablishment</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>WorkingAtHome</t>
+  </si>
+  <si>
+    <t>WorkingAsManager</t>
+  </si>
+  <si>
+    <t>HourlyPaisOrSalaried</t>
+  </si>
+  <si>
+    <t>WorkingHours</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>ACAEligibility</t>
+  </si>
+  <si>
+    <t>ACAFullTime</t>
+  </si>
+  <si>
+    <t>LimitedNonAssessmentPeriod</t>
+  </si>
+  <si>
+    <t>StatementOfWorkSigned</t>
+  </si>
+  <si>
+    <t>GroupDescription</t>
+  </si>
+  <si>
+    <t>JobDescription</t>
+  </si>
+  <si>
+    <t>PeopleGroup</t>
+  </si>
+  <si>
     <t>AddingAnContingentWorkerITC</t>
-  </si>
-  <si>
-    <t>{HCM_US_username}</t>
-  </si>
-  <si>
-    <t>Navigate</t>
   </si>
 </sst>
 </file>
@@ -297,7 +438,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -349,7 +490,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -551,26 +692,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:BK5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="3"/>
-    <col min="2" max="2" width="0.81640625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="20.7265625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="0.81640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.7265625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="0.81640625" style="2" customWidth="1"/>
-    <col min="9" max="19" width="20.7265625" style="3" customWidth="1"/>
-    <col min="20" max="20" width="0.81640625" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9.1796875" style="3"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="0.85546875" style="2" customWidth="1"/>
+    <col min="3" max="5" width="20.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="0.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="0.85546875" style="2" customWidth="1"/>
+    <col min="9" max="62" width="20.7109375" style="3" customWidth="1"/>
+    <col min="63" max="63" width="0.85546875" style="2" customWidth="1"/>
+    <col min="64" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,10 +721,10 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
       <c r="G1" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="J1" s="10"/>
       <c r="K1" s="11"/>
@@ -595,8 +736,51 @@
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
       <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="11"/>
+      <c r="AX1" s="11"/>
+      <c r="AY1" s="11"/>
+      <c r="AZ1" s="11"/>
+      <c r="BA1" s="11"/>
+      <c r="BB1" s="11"/>
+      <c r="BC1" s="11"/>
+      <c r="BD1" s="11"/>
+      <c r="BE1" s="11"/>
+      <c r="BF1" s="11"/>
+      <c r="BG1" s="11"/>
+      <c r="BH1" s="11"/>
+      <c r="BI1" s="11"/>
+      <c r="BJ1" s="11"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
@@ -631,19 +815,148 @@
         <v>15</v>
       </c>
       <c r="P2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="W2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="BJ2" s="7" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -651,7 +964,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>7</v>
@@ -661,10 +974,10 @@
         <v>20</v>
       </c>
       <c r="J3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>21</v>
@@ -673,31 +986,82 @@
         <v>22</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="P3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="T3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="V3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="W3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="8"/>
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="8"/>
+      <c r="BG3" s="8"/>
+      <c r="BH3" s="8"/>
+      <c r="BI3" s="8"/>
+      <c r="BJ3" s="8"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="C5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="I1:S1"/>
+    <mergeCell ref="I1:BJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -710,7 +1074,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
